--- a/data/trans_dic/P25_5-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25_5-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece asma</t>
+          <t>Población que padece asma (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>6,28%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>6,97%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6,4%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5,71%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5,66%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6,9%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10,09%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8,15%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9,72%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,22%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>5,94%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>5,79%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>5,61%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>6,8%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>8,15%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>5,24%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>5,78%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>5,6%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>8,28%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>7,57%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>8,09%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,04; 6,66</t>
+          <t>2,99; 6,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,34; 8,42</t>
+          <t>4,5; 9,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 6,02</t>
+          <t>3,06; 6,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,31; 9,06</t>
+          <t>4,47; 8,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,28; 8,13</t>
+          <t>5,24; 9,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,17; 7,34</t>
+          <t>4,84; 8,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,7</t>
+          <t>4,1; 7,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,46; 10,27</t>
+          <t>4,31; 7,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,05; 6,7</t>
+          <t>5,36; 8,82</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,6; 7,2</t>
+          <t>8,02; 12,9</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,55; 6,92</t>
+          <t>6,34; 10,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,14; 9,04</t>
+          <t>7,91; 12,04</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4,05; 6,6</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>4,75; 7,37</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>4,74; 7,26</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>6,81; 10,2</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>6,22; 8,91</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>6,7; 9,58</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>5,98%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>5,41%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>7,99%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6,81%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>9,91%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>9,73%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>7,89%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>4,91%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>6,55%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>11,36%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>8,03%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>4,75%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>6,46%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>7,95%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>7,45%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>9,28%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,45; 11,38</t>
+          <t>5,6; 11,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 6,68</t>
+          <t>2,35; 5,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,07; 11,1</t>
+          <t>3,72; 11,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,93; 9,21</t>
+          <t>3,76; 9,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,53; 10,92</t>
+          <t>2,98; 9,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,92; 7,77</t>
+          <t>4,6; 11,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 9,02</t>
+          <t>5,61; 11,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,31; 13,86</t>
+          <t>3,93; 7,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,06; 10,0</t>
+          <t>4,66; 11,25</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 6,44</t>
+          <t>6,79; 16,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,98; 9,54</t>
+          <t>6,58; 14,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,31; 9,92</t>
+          <t>7,75; 15,62</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>6,35; 10,32</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,55; 6,13</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>4,71; 8,9</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>6,01; 11,26</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>5,41; 10,5</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>6,92; 12,24</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5,83%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7,94%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8,43%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>10,73%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8,69%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>8,05%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>7,62%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>9,01%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>7,24%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="S8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>7,38%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>8,12%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>10,8%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>7,4%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>7,5%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>8,99%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 14,17</t>
+          <t>3,72; 15,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,5; 12,16</t>
+          <t>3,39; 12,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,19; 13,68</t>
+          <t>3,62; 14,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>2,38; 12,41</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>3,68; 13,25</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,61; 13,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,62; 16,5</t>
+          <t>3,92; 13,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>4,87; 13,32</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6,95; 17,01</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4,89; 14,92</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>4,18; 11,31</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>4,93; 10,83</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>6,07; 12,64</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>4,9; 12,51</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>4,82; 11,03</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>6,08; 13,0</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>4,46; 11,26</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>6,1%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>6,6%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>6,82%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7,3%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9,86%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>8,49%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>6,53%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>5,64%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>6,37%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>10,08%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,65%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>6,43%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>8,03%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>7,55%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>8,37%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,8; 7,82</t>
+          <t>5,0; 8,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,25; 6,74</t>
+          <t>4,23; 7,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,26; 7,61</t>
+          <t>4,16; 7,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,28</t>
+          <t>4,77; 8,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,46; 8,4</t>
+          <t>5,07; 8,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,75; 6,98</t>
+          <t>5,0; 8,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,77; 8,54</t>
+          <t>5,51; 8,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,06; 10,39</t>
+          <t>4,74; 7,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,49; 7,77</t>
+          <t>6,06; 9,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,77; 6,59</t>
+          <t>8,19; 12,61</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,45; 7,58</t>
+          <t>6,99; 10,45</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,53; 8,78</t>
+          <t>8,53; 11,86</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5,75; 7,75</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>4,85; 6,67</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>5,49; 7,57</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>6,81; 9,31</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>6,47; 8,69</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>7,24; 9,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece asma (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>77322</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>103006</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>74883</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>102731</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16001</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14532</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>102946</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>103491</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>125410</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>182296</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>19372</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>22967</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>180267</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>206496</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>200293</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>285027</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>35373</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>37500</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>49435; 110140</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>74126; 150222</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>50344; 109643</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>73250; 147240</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12022; 21602</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10994; 19488</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>73877; 140024</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>78752; 135889</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>97377; 160352</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>144943; 232962</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>15073; 24299</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18691; 28461</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>139848; 227937</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>165054; 256349</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>163917; 251336</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>234407; 351286</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>29057; 41604</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>31057; 44392</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>109319</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>55085</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>84311</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>82633</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3908</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5372</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>112663</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>75555</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>94143</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>138142</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6331</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7603</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>221982</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>130640</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>178455</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>220774</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>10239</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>12974</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>76958; 154742</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>32335; 82314</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>51257; 153090</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>51971; 131099</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2156; 6679</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3354; 8125</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>78055; 157778</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>53915; 105218</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>64388; 155522</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>94715; 229584</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4283; 9223</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5183; 10451</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>175669; 285533</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>97660; 168490</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>130061; 245822</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>166806; 312595</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>7431; 14422</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>9669; 17109</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>34490</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>28693</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>31064</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>24631</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>32250</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>34534</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>44184</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>35796</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>66740</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>63227</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>75247</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>60427</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15727; 63781</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14254; 51455</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15322; 59963</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10045; 52465</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15902; 55497</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19949; 54541</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>28642; 70046</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20151; 61468</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>40629; 103734</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>39985; 91559</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>50757; 108551</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>37249; 93958</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>221131</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>186784</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>190258</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>209995</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19908</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>19904</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>247859</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>213580</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>263737</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>356233</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>25703</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>30570</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>468989</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>400364</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>453995</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>566228</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>45611</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>50474</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>172579; 281665</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>145804; 241573</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>143416; 255792</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>164138; 280023</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>15305; 25174</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>14999; 25906</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>198476; 304219</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>171109; 260921</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>218970; 327880</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>296054; 455682</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>21156; 31630</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>25857; 35951</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>405448; 546252</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>342048; 470878</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>387320; 534237</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>480355; 657066</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>39097; 52539</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>43639; 58181</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
